--- a/artfynd/A 62543-2018.xlsx
+++ b/artfynd/A 62543-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>465378</v>
+        <v>105278762</v>
       </c>
       <c r="B2" t="n">
-        <v>90042</v>
+        <v>96312</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,55 +692,45 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1627</v>
+        <v>219798</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Lundticka</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Loweomyces wynneae</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Berk. &amp; Broome) Jülich</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>frukt-/fröspridning</t>
+          <t>4</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Trolleholms gods, Sk</t>
+          <t>Trolleholm, Sk</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>392454.3760533207</v>
+        <v>392086.6705776053</v>
       </c>
       <c r="R2" t="n">
-        <v>6198116.700040066</v>
+        <v>6199047.849894262</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -764,7 +754,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2008-11-17</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -774,17 +764,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2008-11-17</t>
+          <t>2022-09-26</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Fruktkropparna i 2 fläckar åtskilja med ca 3 meters mellanrum</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,31 +781,15 @@
       <c r="AG2" t="b">
         <v>0</v>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Ädellövskog</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>Ask-al-skog</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>Sten Svantesson</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sten Svantesson</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Sten Svantesson</t>
+          <t>Örjan Fritz</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -1105,10 +1074,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>105278762</v>
+        <v>465378</v>
       </c>
       <c r="B5" t="n">
-        <v>96312</v>
+        <v>90042</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1117,45 +1086,55 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219798</v>
+        <v>1627</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Lundticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Loweomyces wynneae</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Berk. &amp; Broome) Jülich</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>frukt-/fröspridning</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Trolleholm, Sk</t>
+          <t>Trolleholms gods, Sk</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>392086.6705776053</v>
+        <v>392454.3760533207</v>
       </c>
       <c r="R5" t="n">
-        <v>6199047.849894262</v>
+        <v>6198116.700040066</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1179,7 +1158,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2008-11-17</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1189,12 +1168,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-09-26</t>
+          <t>2008-11-17</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Fruktkropparna i 2 fläckar åtskilja med ca 3 meters mellanrum</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1206,15 +1190,31 @@
       <c r="AG5" t="b">
         <v>0</v>
       </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Ädellövskog</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Ask-al-skog</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Sten Svantesson</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr"/>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Sten Svantesson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Örjan Fritz</t>
+          <t>Sten Svantesson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
